--- a/data/trans_orig/P1403-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>117294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99179</v>
+        <v>99764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138033</v>
+        <v>137828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2007981394174246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1697854823190259</v>
+        <v>0.1707882757735992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2363010506173139</v>
+        <v>0.2359491017433096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>215</v>
@@ -765,19 +765,19 @@
         <v>223048</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198723</v>
+        <v>198879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>249279</v>
+        <v>249142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2418301703310408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2154563994941431</v>
+        <v>0.2156263231396327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2702702583264589</v>
+        <v>0.2701211734470541</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>337</v>
@@ -786,19 +786,19 @@
         <v>340342</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>308289</v>
+        <v>310024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>374556</v>
+        <v>375739</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.225919839533696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2046427370087676</v>
+        <v>0.2057945499125842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2486311175537717</v>
+        <v>0.2494161695150829</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>466847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446108</v>
+        <v>446313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>484962</v>
+        <v>484377</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7992018605825755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7636989493826862</v>
+        <v>0.7640508982566905</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8302145176809741</v>
+        <v>0.8292117242264011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>670</v>
@@ -836,19 +836,19 @@
         <v>699285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>673054</v>
+        <v>673191</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>723610</v>
+        <v>723454</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7581698296689593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.729729741673541</v>
+        <v>0.7298788265529459</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7845436005058567</v>
+        <v>0.7843736768603674</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1122</v>
@@ -857,19 +857,19 @@
         <v>1166132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1131918</v>
+        <v>1130735</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1198185</v>
+        <v>1196450</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.774080160466304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7513688824462282</v>
+        <v>0.7505838304849177</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7953572629912323</v>
+        <v>0.7942054500874159</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>133386</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113074</v>
+        <v>113045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>154829</v>
+        <v>155058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.12374704551527</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1049027714974207</v>
+        <v>0.1048759412872809</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1436400888680401</v>
+        <v>0.1438531884834978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -982,19 +982,19 @@
         <v>169095</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144932</v>
+        <v>147780</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192933</v>
+        <v>194386</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1598952146328387</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1370461583308023</v>
+        <v>0.1397397223811492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1824363752820939</v>
+        <v>0.1838099611671984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>299</v>
@@ -1003,19 +1003,19 @@
         <v>302481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>272440</v>
+        <v>271985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>333258</v>
+        <v>336312</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1416488386636922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1275809599223141</v>
+        <v>0.1273678296111865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1560611533613681</v>
+        <v>0.1574911812614866</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>944508</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923065</v>
+        <v>922836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964820</v>
+        <v>964849</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.87625295448473</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.85635991113196</v>
+        <v>0.8561468115165022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8950972285025792</v>
+        <v>0.8951240587127192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>865</v>
@@ -1053,19 +1053,19 @@
         <v>888443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>864605</v>
+        <v>863152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>912606</v>
+        <v>909758</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8401047853671614</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8175636247179061</v>
+        <v>0.8161900388328015</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8629538416691978</v>
+        <v>0.8602602776188506</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1784</v>
@@ -1074,19 +1074,19 @@
         <v>1832951</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1802174</v>
+        <v>1799120</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1862992</v>
+        <v>1863447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8583511613363078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8439388466386321</v>
+        <v>0.8425088187385132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8724190400776863</v>
+        <v>0.8726321703888135</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>130254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111370</v>
+        <v>111753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153621</v>
+        <v>155232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1161332405894033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0992962991559366</v>
+        <v>0.0996373873558099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1369663794319477</v>
+        <v>0.1384029871071272</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -1199,19 +1199,19 @@
         <v>130552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110789</v>
+        <v>109422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>152353</v>
+        <v>154578</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1313475325788966</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1114648545868039</v>
+        <v>0.1100888348673136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1532815633332208</v>
+        <v>0.1555208066693791</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -1220,19 +1220,19 @@
         <v>260806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233336</v>
+        <v>233417</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>292458</v>
+        <v>294931</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1232813593250056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.110296376103867</v>
+        <v>0.1103348791620806</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1382431390102966</v>
+        <v>0.1394120028664095</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>991340</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>967973</v>
+        <v>966362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1010224</v>
+        <v>1009841</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8838667594105967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8630336205680521</v>
+        <v>0.8615970128928727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9007037008440634</v>
+        <v>0.9003626126441902</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>854</v>
@@ -1270,19 +1270,19 @@
         <v>863388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>841587</v>
+        <v>839362</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>883151</v>
+        <v>884518</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8686524674211034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8467184366667794</v>
+        <v>0.8444791933306209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8885351454131964</v>
+        <v>0.8899111651326863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1825</v>
@@ -1291,19 +1291,19 @@
         <v>1854728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1823076</v>
+        <v>1820603</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1882198</v>
+        <v>1882117</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8767186406749944</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8617568609897034</v>
+        <v>0.8605879971335906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.889703623896133</v>
+        <v>0.8896651208379194</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>38194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27744</v>
+        <v>26252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50381</v>
+        <v>49986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08540662899340898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06203928113415032</v>
+        <v>0.05870237023756413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1126587708959571</v>
+        <v>0.111774972635804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1416,19 +1416,19 @@
         <v>37390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25709</v>
+        <v>27517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48597</v>
+        <v>51916</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1095976937811699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07535808960268499</v>
+        <v>0.08065683777564051</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1424460050401215</v>
+        <v>0.1521761214226297</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1437,19 +1437,19 @@
         <v>75584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60892</v>
+        <v>60731</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92950</v>
+        <v>93257</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09587519909865971</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07723882192324744</v>
+        <v>0.07703531894255851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.11790293720157</v>
+        <v>0.1182932135182508</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>409006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>396819</v>
+        <v>397214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>419456</v>
+        <v>420948</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.914593371006591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8873412291040429</v>
+        <v>0.888225027364196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9379607188658498</v>
+        <v>0.9412976297624359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>302</v>
@@ -1487,19 +1487,19 @@
         <v>303768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>292561</v>
+        <v>289242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315449</v>
+        <v>313641</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8904023062188301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8575539949598784</v>
+        <v>0.8478238785773704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.924641910397315</v>
+        <v>0.9193431622243595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -1508,19 +1508,19 @@
         <v>712774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>695408</v>
+        <v>695101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>727466</v>
+        <v>727627</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9041248009013403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8820970627984301</v>
+        <v>0.8817067864817492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9227611780767526</v>
+        <v>0.9229646810574413</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>419129</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>383456</v>
+        <v>382162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>457209</v>
+        <v>461021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1297279603172485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1186866511625663</v>
+        <v>0.1182861643713262</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1415146020834765</v>
+        <v>0.1426942006522701</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>543</v>
@@ -1633,19 +1633,19 @@
         <v>560085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>517334</v>
+        <v>516961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>606558</v>
+        <v>603425</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1689563080236715</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1560599637943764</v>
+        <v>0.1559473992623751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1829753718528511</v>
+        <v>0.1820304957196031</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>972</v>
@@ -1654,19 +1654,19 @@
         <v>979214</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>923604</v>
+        <v>924113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1033028</v>
+        <v>1043516</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1495942542711443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1410986949220786</v>
+        <v>0.1411765954902893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.157815481963661</v>
+        <v>0.159417697899042</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2811700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2773620</v>
+        <v>2769808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2847373</v>
+        <v>2848667</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8702720396827515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8584853979165235</v>
+        <v>0.8573057993477304</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8813133488374336</v>
+        <v>0.8817138356286743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2691</v>
@@ -1704,19 +1704,19 @@
         <v>2754884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2708411</v>
+        <v>2711544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2797635</v>
+        <v>2798008</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8310436919763285</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8170246281471489</v>
+        <v>0.8179695042803972</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8439400362056236</v>
+        <v>0.844052600737625</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5430</v>
@@ -1725,19 +1725,19 @@
         <v>5566584</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5512770</v>
+        <v>5502282</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5622194</v>
+        <v>5621685</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8504057457288556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8421845180363391</v>
+        <v>0.8405823021009581</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8589013050779214</v>
+        <v>0.8588234045097107</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>165789</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143011</v>
+        <v>141159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>194590</v>
+        <v>189250</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1588118029524841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1369924932729225</v>
+        <v>0.1352178462876853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1864000843347385</v>
+        <v>0.1812849929957968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>235</v>
@@ -2090,19 +2090,19 @@
         <v>249875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>221377</v>
+        <v>223570</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>278964</v>
+        <v>278156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2233716773175672</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1978961106607605</v>
+        <v>0.1998565809020836</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2493745329669102</v>
+        <v>0.248652998348524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>382</v>
@@ -2111,19 +2111,19 @@
         <v>415665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>380412</v>
+        <v>378024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>454525</v>
+        <v>456102</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1922070232070757</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1759061155378511</v>
+        <v>0.1748015250002924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.210176282964348</v>
+        <v>0.2109058289205565</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>878146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>849345</v>
+        <v>854685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>900924</v>
+        <v>902776</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8411881970475159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8135999156652615</v>
+        <v>0.8187150070042032</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8630075067270775</v>
+        <v>0.8647821537123147</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>795</v>
@@ -2161,19 +2161,19 @@
         <v>868778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>839689</v>
+        <v>840497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>897276</v>
+        <v>895083</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7766283226824328</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7506254670330893</v>
+        <v>0.7513470016514759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8021038893392394</v>
+        <v>0.8001434190979163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1626</v>
@@ -2182,19 +2182,19 @@
         <v>1746923</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1708063</v>
+        <v>1706486</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1782176</v>
+        <v>1784564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8077929767929243</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7898237170356518</v>
+        <v>0.7890941710794436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8240938844621488</v>
+        <v>0.8251984749997078</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>170852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148974</v>
+        <v>148864</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198070</v>
+        <v>198722</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1748606973089893</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.152469734945059</v>
+        <v>0.1523567865143667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2027181194047982</v>
+        <v>0.2033848684477268</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>217</v>
@@ -2307,19 +2307,19 @@
         <v>231549</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>204243</v>
+        <v>204397</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261157</v>
+        <v>259106</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.21219348463151</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1871694084848374</v>
+        <v>0.1873105843586765</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2393262161563735</v>
+        <v>0.2374467721591747</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>374</v>
@@ -2328,19 +2328,19 @@
         <v>402401</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>363557</v>
+        <v>366703</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>438503</v>
+        <v>442492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1945572580366493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1757763912478598</v>
+        <v>0.1772975341484243</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2120123901603221</v>
+        <v>0.2139408659578284</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>806221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>779003</v>
+        <v>778351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>828099</v>
+        <v>828209</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8251393026910108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7972818805952019</v>
+        <v>0.7966151315522733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.847530265054941</v>
+        <v>0.8476432134856333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>801</v>
@@ -2378,19 +2378,19 @@
         <v>859669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>830061</v>
+        <v>832112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>886975</v>
+        <v>886821</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.78780651536849</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7606737838436258</v>
+        <v>0.7625532278408251</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8128305915151625</v>
+        <v>0.8126894156413234</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1568</v>
@@ -2399,19 +2399,19 @@
         <v>1665890</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1629788</v>
+        <v>1625799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1704734</v>
+        <v>1701588</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8054427419633506</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.787987609839678</v>
+        <v>0.7860591340421716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8242236087521402</v>
+        <v>0.8227024658515757</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>157824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135413</v>
+        <v>136369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181538</v>
+        <v>183610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.178309145023727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1529886085143513</v>
+        <v>0.1540696857059047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2051006538784307</v>
+        <v>0.2074419909945699</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -2524,19 +2524,19 @@
         <v>186479</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>162843</v>
+        <v>161962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210144</v>
+        <v>210381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2129246319981092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1859371500989393</v>
+        <v>0.1849306900520043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2399461721178249</v>
+        <v>0.2402174248969514</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>317</v>
@@ -2545,19 +2545,19 @@
         <v>344303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>309969</v>
+        <v>312360</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>380828</v>
+        <v>383882</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.195525290175984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1760276357713061</v>
+        <v>0.1773852674643433</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2162677472973112</v>
+        <v>0.2180017330539344</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>727291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>703577</v>
+        <v>701505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>749702</v>
+        <v>748746</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8216908549762729</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7948993461215693</v>
+        <v>0.7925580090054301</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8470113914856486</v>
+        <v>0.8459303142940953</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>650</v>
@@ -2595,19 +2595,19 @@
         <v>689317</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>665652</v>
+        <v>665415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>712953</v>
+        <v>713834</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7870753680018908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7600538278821749</v>
+        <v>0.7597825751030485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8140628499010607</v>
+        <v>0.8150693099479958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1334</v>
@@ -2616,19 +2616,19 @@
         <v>1416608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1380083</v>
+        <v>1377029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1450942</v>
+        <v>1448551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.804474709824016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7837322527026888</v>
+        <v>0.7819982669460657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8239723642286938</v>
+        <v>0.8226147325356568</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>76482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61550</v>
+        <v>60594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95323</v>
+        <v>95646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1520456342198479</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1223610647697368</v>
+        <v>0.1204596760267401</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.189500512946662</v>
+        <v>0.1901430494335279</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -2741,19 +2741,19 @@
         <v>71000</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55075</v>
+        <v>56313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88587</v>
+        <v>90346</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.156823480501125</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1216491025254063</v>
+        <v>0.1243839770400941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1956708190318925</v>
+        <v>0.1995563733609956</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -2762,19 +2762,19 @@
         <v>147482</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124763</v>
+        <v>124467</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173515</v>
+        <v>172466</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1543088645247145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1305382082566635</v>
+        <v>0.1302281574203893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1815473206338931</v>
+        <v>0.1804494345677525</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>426541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>407700</v>
+        <v>407377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441473</v>
+        <v>442429</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8479543657801522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8104994870533379</v>
+        <v>0.809856950566472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8776389352302632</v>
+        <v>0.8795403239732599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>350</v>
@@ -2812,19 +2812,19 @@
         <v>381736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364149</v>
+        <v>362390</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397661</v>
+        <v>396423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8431765194988751</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8043291809681078</v>
+        <v>0.8004436266390043</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8783508974745936</v>
+        <v>0.8756160229599058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>742</v>
@@ -2833,19 +2833,19 @@
         <v>808276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>782243</v>
+        <v>783292</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>830995</v>
+        <v>831291</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8456911354752855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8184526793661069</v>
+        <v>0.8195505654322475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8694617917433364</v>
+        <v>0.8697718425796106</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>570947</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>526333</v>
+        <v>528355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>613963</v>
+        <v>621809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.167475204949456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1543886282694493</v>
+        <v>0.154981534699502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.180092936244481</v>
+        <v>0.182394529573548</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>685</v>
@@ -2958,19 +2958,19 @@
         <v>738903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>690133</v>
+        <v>688125</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>787093</v>
+        <v>787003</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2088238528466229</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1950408315804057</v>
+        <v>0.1944734167693517</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2224430964136177</v>
+        <v>0.2224176256909082</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1204</v>
@@ -2979,19 +2979,19 @@
         <v>1309850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1247597</v>
+        <v>1241791</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1381320</v>
+        <v>1376062</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1885341692594129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.179573775374317</v>
+        <v>0.1787380734795926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1988212844076339</v>
+        <v>0.198064462800364</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2838198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2795182</v>
+        <v>2787336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2882812</v>
+        <v>2880790</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.832524795050544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8199070637555189</v>
+        <v>0.8176054704264519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8456113717305507</v>
+        <v>0.845018465300498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2596</v>
@@ -3029,19 +3029,19 @@
         <v>2799500</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2751310</v>
+        <v>2751400</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2848270</v>
+        <v>2850278</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7911761471533771</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7775569035863822</v>
+        <v>0.7775823743090918</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8049591684195943</v>
+        <v>0.8055265832306483</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5270</v>
@@ -3050,19 +3050,19 @@
         <v>5637698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5566228</v>
+        <v>5571486</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5699951</v>
+        <v>5705757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8114658307405872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8011787155923659</v>
+        <v>0.8019355371996358</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8204262246256829</v>
+        <v>0.8212619265204073</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>158228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137034</v>
+        <v>138202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186253</v>
+        <v>184213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1402734713943577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1214844568499939</v>
+        <v>0.1225194941423815</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1651186191843071</v>
+        <v>0.1633102202622583</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>217</v>
@@ -3415,19 +3415,19 @@
         <v>249560</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>220461</v>
+        <v>223603</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282588</v>
+        <v>282002</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1981323216060406</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1750299267197323</v>
+        <v>0.1775242429359606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2243542346760611</v>
+        <v>0.2238894134152395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>370</v>
@@ -3436,19 +3436,19 @@
         <v>407788</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>370819</v>
+        <v>371671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>447284</v>
+        <v>448196</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1707970180127021</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1553128774608647</v>
+        <v>0.1556698143430234</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1873393644831623</v>
+        <v>0.1877214180417321</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>969769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>941744</v>
+        <v>943784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>990963</v>
+        <v>989795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8597265286056422</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.834881380815693</v>
+        <v>0.8366897797377417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8785155431500061</v>
+        <v>0.8774805058576185</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>971</v>
@@ -3486,19 +3486,19 @@
         <v>1010001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>976973</v>
+        <v>977559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1039100</v>
+        <v>1035958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8018676783939594</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7756457653239389</v>
+        <v>0.7761105865847605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8249700732802677</v>
+        <v>0.8224757570640394</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1884</v>
@@ -3507,19 +3507,19 @@
         <v>1979770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1940274</v>
+        <v>1939362</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2016739</v>
+        <v>2015887</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8292029819872979</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8126606355168376</v>
+        <v>0.8122785819582677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8446871225391352</v>
+        <v>0.8443301856569766</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>129870</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110079</v>
+        <v>110822</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151657</v>
+        <v>152117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1428992281425337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1211224619715642</v>
+        <v>0.1219399261749387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1668711180046498</v>
+        <v>0.167377675889287</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>149</v>
@@ -3632,19 +3632,19 @@
         <v>171001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145461</v>
+        <v>148594</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>195694</v>
+        <v>197271</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1699006743093317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1445249453111273</v>
+        <v>0.1476376869167878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1944349023654856</v>
+        <v>0.1960021471563571</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>281</v>
@@ -3653,19 +3653,19 @@
         <v>300871</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268819</v>
+        <v>266063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>335066</v>
+        <v>332143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.157088278144526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1403534082779493</v>
+        <v>0.1389145935748982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1749419587148006</v>
+        <v>0.1734155130103055</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>778955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757168</v>
+        <v>756708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>798746</v>
+        <v>798003</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8571007718574664</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8331288819953503</v>
+        <v>0.832622324110713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8788775380284358</v>
+        <v>0.8780600738250615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>802</v>
@@ -3703,19 +3703,19 @@
         <v>835474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>810781</v>
+        <v>809204</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>861014</v>
+        <v>857881</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8300993256906684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8055650976345143</v>
+        <v>0.8039978528436422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8554750546888727</v>
+        <v>0.8523623130832119</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1551</v>
@@ -3724,19 +3724,19 @@
         <v>1614429</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1580234</v>
+        <v>1583157</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1646481</v>
+        <v>1649237</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.842911721855474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8250580412851994</v>
+        <v>0.8265844869896946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8596465917220507</v>
+        <v>0.8610854064251019</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>136266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116624</v>
+        <v>116578</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158036</v>
+        <v>158365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1654192604540616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1415757115059017</v>
+        <v>0.1415190212467419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.191846962664132</v>
+        <v>0.192246233215535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -3849,19 +3849,19 @@
         <v>137045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116563</v>
+        <v>116682</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160720</v>
+        <v>160555</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1777359191606877</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1511721914046367</v>
+        <v>0.1513265439824452</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2084407824746997</v>
+        <v>0.2082269293042761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -3870,19 +3870,19 @@
         <v>273310</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243108</v>
+        <v>242518</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304331</v>
+        <v>305291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1713740884461233</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1524362679873434</v>
+        <v>0.1520660496771868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1908250468512385</v>
+        <v>0.1914269675364559</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>687493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>665723</v>
+        <v>665394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>707135</v>
+        <v>707181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8345807395459385</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8081530373358677</v>
+        <v>0.807753766784465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8584242884940982</v>
+        <v>0.858480978753258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -3920,19 +3920,19 @@
         <v>634014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>610339</v>
+        <v>610504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>654496</v>
+        <v>654377</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8222640808393124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7915592175253003</v>
+        <v>0.7917730706957239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8488278085953633</v>
+        <v>0.8486734560175548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1264</v>
@@ -3941,19 +3941,19 @@
         <v>1321508</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1290487</v>
+        <v>1289527</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1351710</v>
+        <v>1352300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8286259115538768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8091749531487616</v>
+        <v>0.8085730324635448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.847563732012657</v>
+        <v>0.847933950322814</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>83484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67186</v>
+        <v>67801</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102402</v>
+        <v>102989</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1647602069878994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1325955530350287</v>
+        <v>0.1338093032174963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.202096012449457</v>
+        <v>0.2032542917834889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -4066,19 +4066,19 @@
         <v>66740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51041</v>
+        <v>51363</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85632</v>
+        <v>84490</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1362880200017992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1042303259408692</v>
+        <v>0.104887384502827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1748660970772445</v>
+        <v>0.1725359276647891</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -4087,19 +4087,19 @@
         <v>150224</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126125</v>
+        <v>128910</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173732</v>
+        <v>177331</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1507670497127944</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1265814322447067</v>
+        <v>0.1293760433688619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1743597531122903</v>
+        <v>0.1779721887273996</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>423217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404299</v>
+        <v>403712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439515</v>
+        <v>438900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8352397930121006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.797903987550543</v>
+        <v>0.7967457082165111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8674044469649714</v>
+        <v>0.8661906967825038</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>401</v>
@@ -4137,19 +4137,19 @@
         <v>422958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>404066</v>
+        <v>405208</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>438657</v>
+        <v>438335</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8637119799982008</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8251339029227556</v>
+        <v>0.8274640723352112</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8957696740591309</v>
+        <v>0.8951126154971731</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>791</v>
@@ -4158,19 +4158,19 @@
         <v>846174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>822666</v>
+        <v>819067</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>870273</v>
+        <v>867488</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8492329502872056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8256402468877103</v>
+        <v>0.8220278112725999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8734185677552934</v>
+        <v>0.8706239566311381</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>507848</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>468705</v>
+        <v>463250</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>549146</v>
+        <v>547579</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1508184391821555</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1391938931240908</v>
+        <v>0.1375737385427001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1630827725564968</v>
+        <v>0.1626175480061832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>535</v>
@@ -4283,19 +4283,19 @@
         <v>624345</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>574410</v>
+        <v>578415</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>674540</v>
+        <v>669775</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1770292126674364</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1628704999868299</v>
+        <v>0.1640060377233543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1912616421195783</v>
+        <v>0.1899104149859215</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1037</v>
@@ -4304,19 +4304,19 @@
         <v>1132194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1068513</v>
+        <v>1070943</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1197870</v>
+        <v>1204620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1642270488709218</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1549900554725853</v>
+        <v>0.155342576925495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1737534880102392</v>
+        <v>0.1747325989218252</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2859434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2818136</v>
+        <v>2819703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2898577</v>
+        <v>2904032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8491815608178445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8369172274435033</v>
+        <v>0.8373824519938169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8608061068759092</v>
+        <v>0.8624262614573001</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2787</v>
@@ -4354,19 +4354,19 @@
         <v>2902447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2852252</v>
+        <v>2857017</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2952382</v>
+        <v>2948377</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8229707873325636</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8087383578804217</v>
+        <v>0.8100895850140785</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8371295000131701</v>
+        <v>0.8359939622766456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5490</v>
@@ -4375,19 +4375,19 @@
         <v>5761881</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5696205</v>
+        <v>5689455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5825562</v>
+        <v>5823132</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8357729511290782</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8262465119897607</v>
+        <v>0.8252674010781749</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8450099445274143</v>
+        <v>0.8446574230745052</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>85090</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69546</v>
+        <v>69627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101975</v>
+        <v>102104</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1710993448985701</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1398431327113007</v>
+        <v>0.1400079074337781</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.205051842456739</v>
+        <v>0.2053121049997563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -4740,19 +4740,19 @@
         <v>173709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>154738</v>
+        <v>157892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192725</v>
+        <v>192216</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2788697979403482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2484139099005115</v>
+        <v>0.2534766193567977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3093978755827645</v>
+        <v>0.308580163290965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>397</v>
@@ -4761,19 +4761,19 @@
         <v>258799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>235776</v>
+        <v>236871</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283074</v>
+        <v>285527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2310259754986521</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2104734581994988</v>
+        <v>0.2114506760439369</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2526952936640538</v>
+        <v>0.2548849934817048</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>412221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>395336</v>
+        <v>395207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427765</v>
+        <v>427684</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8289006551014299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7949481575432608</v>
+        <v>0.7946878950002437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8601568672886992</v>
+        <v>0.8599920925662219</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>564</v>
@@ -4811,19 +4811,19 @@
         <v>449196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>430180</v>
+        <v>430689</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468167</v>
+        <v>465013</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7211302020596519</v>
+        <v>0.7211302020596518</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6906021244172351</v>
+        <v>0.6914198367090351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7515860900994883</v>
+        <v>0.7465233806432022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>916</v>
@@ -4832,19 +4832,19 @@
         <v>861418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>837143</v>
+        <v>834690</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>884441</v>
+        <v>883346</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7689740245013479</v>
+        <v>0.768974024501348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7473047063359459</v>
+        <v>0.7451150065182952</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7895265418005011</v>
+        <v>0.788549323956063</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>176935</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153897</v>
+        <v>155478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198402</v>
+        <v>199979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1844740166950252</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1604542796334806</v>
+        <v>0.1621028693438079</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2068551620778473</v>
+        <v>0.2085000404393377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>446</v>
@@ -4957,19 +4957,19 @@
         <v>243897</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>224411</v>
+        <v>222387</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267913</v>
+        <v>266076</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.218939928504247</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2014479565921342</v>
+        <v>0.199631406702803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2404989554787924</v>
+        <v>0.2388499789245275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>683</v>
@@ -4978,19 +4978,19 @@
         <v>420832</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>389245</v>
+        <v>391994</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>453250</v>
+        <v>456025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.202994229474247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1877577933530186</v>
+        <v>0.18908385533608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2186318448091966</v>
+        <v>0.219969943781401</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>782198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>760731</v>
+        <v>759154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>805236</v>
+        <v>803655</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8155259833049748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7931448379221525</v>
+        <v>0.7914999595606623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8395457203665194</v>
+        <v>0.8378971306561921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1158</v>
@@ -5028,19 +5028,19 @@
         <v>870092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>846076</v>
+        <v>847913</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>889578</v>
+        <v>891602</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.781060071495753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7595010445212075</v>
+        <v>0.7611500210754724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7985520434078652</v>
+        <v>0.8003685932971971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1830</v>
@@ -5049,19 +5049,19 @@
         <v>1652290</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1619872</v>
+        <v>1617097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1683877</v>
+        <v>1681128</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7970057705257531</v>
+        <v>0.7970057705257532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7813681551908035</v>
+        <v>0.7800300562185994</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8122422066469813</v>
+        <v>0.81091614466392</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>210935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187624</v>
+        <v>188991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>235947</v>
+        <v>239285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2017550930095627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1794583893568618</v>
+        <v>0.1807661436200881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2256782512842078</v>
+        <v>0.2288717741284348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>356</v>
@@ -5174,19 +5174,19 @@
         <v>194162</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>176537</v>
+        <v>175083</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>216486</v>
+        <v>214196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1855552036049583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1687114151351405</v>
+        <v>0.1673217573731096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.206888997077772</v>
+        <v>0.204701267802188</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>631</v>
@@ -5195,19 +5195,19 @@
         <v>405097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374363</v>
+        <v>369192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>436926</v>
+        <v>432738</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1936517234782411</v>
+        <v>0.193651723478241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1789597621027874</v>
+        <v>0.1764877347892277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2088671070146756</v>
+        <v>0.2068650934947515</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>834565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>809553</v>
+        <v>806215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>857876</v>
+        <v>856509</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7982449069904374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7743217487157928</v>
+        <v>0.7711282258715652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8205416106431384</v>
+        <v>0.819233856379912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1158</v>
@@ -5245,19 +5245,19 @@
         <v>852223</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>829899</v>
+        <v>832189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>869848</v>
+        <v>871302</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8144447963950417</v>
+        <v>0.8144447963950416</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7931110029222279</v>
+        <v>0.7952987321978124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8312885848648595</v>
+        <v>0.8326782426268905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1911</v>
@@ -5266,19 +5266,19 @@
         <v>1686788</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1654959</v>
+        <v>1659147</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1717522</v>
+        <v>1722693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8063482765217589</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7911328929853243</v>
+        <v>0.7931349065052486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8210402378972126</v>
+        <v>0.8235122652107727</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>195747</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172598</v>
+        <v>169939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218079</v>
+        <v>219831</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2008565748645912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1771031567663124</v>
+        <v>0.1743749967350195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2237705679755625</v>
+        <v>0.2255688091133165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>302</v>
@@ -5391,19 +5391,19 @@
         <v>160585</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143599</v>
+        <v>143273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>180237</v>
+        <v>178951</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1768848423820018</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.158174681569755</v>
+        <v>0.1578154405744706</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1985322432716223</v>
+        <v>0.1971149922553408</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>546</v>
@@ -5412,19 +5412,19 @@
         <v>356332</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>329340</v>
+        <v>328444</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>388323</v>
+        <v>385855</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1892954879081734</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1749562740288002</v>
+        <v>0.1744801324669536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2062901093145587</v>
+        <v>0.204978923242039</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>778816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>756484</v>
+        <v>754732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>801965</v>
+        <v>804624</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7991434251354089</v>
+        <v>0.7991434251354087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7762294320244378</v>
+        <v>0.7744311908866833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8228968432336881</v>
+        <v>0.8256250032649803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1017</v>
@@ -5462,19 +5462,19 @@
         <v>747265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>727613</v>
+        <v>728899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>764251</v>
+        <v>764577</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.823115157617998</v>
+        <v>0.8231151576179982</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8014677567283778</v>
+        <v>0.802885007744659</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8418253184302449</v>
+        <v>0.8421845594255291</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1719</v>
@@ -5483,19 +5483,19 @@
         <v>1526081</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1494090</v>
+        <v>1496558</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1553073</v>
+        <v>1553969</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8107045120918266</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7937098906854412</v>
+        <v>0.7950210767579611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8250437259711998</v>
+        <v>0.8255198675330464</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>668707</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>625764</v>
+        <v>624749</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>708785</v>
+        <v>715135</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.192350264043946</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1799978683485057</v>
+        <v>0.1797061351801686</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2038784668796821</v>
+        <v>0.2057051116789682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1400</v>
@@ -5608,19 +5608,19 @@
         <v>772353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>735137</v>
+        <v>734170</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>811355</v>
+        <v>808537</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2092457879680241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1991631573236464</v>
+        <v>0.1989012829638052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2198122238809524</v>
+        <v>0.2190486134730784</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2257</v>
@@ -5629,19 +5629,19 @@
         <v>1441060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1382281</v>
+        <v>1386117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1509031</v>
+        <v>1503621</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.20105098017474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1928502920909269</v>
+        <v>0.1933854962761531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2105340277499468</v>
+        <v>0.2097792046133567</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2807799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2767721</v>
+        <v>2761371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2850742</v>
+        <v>2851757</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8076497359560538</v>
+        <v>0.8076497359560539</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7961215331203176</v>
+        <v>0.7942948883210319</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8200021316514942</v>
+        <v>0.8202938648198314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3897</v>
@@ -5679,19 +5679,19 @@
         <v>2918776</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2879774</v>
+        <v>2882592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2955992</v>
+        <v>2956959</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7907542120319758</v>
+        <v>0.7907542120319759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7801877761190478</v>
+        <v>0.7809513865269216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8008368426763537</v>
+        <v>0.8010987170361948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6376</v>
@@ -5700,19 +5700,19 @@
         <v>5726576</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5658605</v>
+        <v>5664015</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5785355</v>
+        <v>5781519</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.79894901982526</v>
+        <v>0.7989490198252599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7894659722500532</v>
+        <v>0.7902207953866431</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8071497079090731</v>
+        <v>0.806614503723847</v>
       </c>
     </row>
     <row r="18">
